--- a/Wyniki 3/S1/S1-GraphQL2 (resolved).xlsx
+++ b/Wyniki 3/S1/S1-GraphQL2 (resolved).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27ACF1-B3A8-44F1-9251-9E188D017A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED9687-9523-455C-A786-3831AD44E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="44">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -142,9 +142,6 @@
     <t>1,2GB</t>
   </si>
   <si>
-    <t>46MB</t>
-  </si>
-  <si>
     <t>15GB</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>53MB</t>
   </si>
   <si>
-    <t>Coś z 100 użytkownikami jest nie tak</t>
-  </si>
-  <si>
     <t>216MB</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
   </si>
   <si>
     <t>224MB</t>
-  </si>
-  <si>
-    <t>50MB</t>
   </si>
   <si>
     <t>549MB</t>
@@ -304,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,12 +338,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,9 +620,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:P41"/>
+  <dimension ref="E7:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
@@ -648,7 +633,7 @@
     <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
@@ -659,7 +644,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="12">
         <v>100</v>
       </c>
@@ -719,8 +704,12 @@
       <c r="P9" s="7">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f>AVERAGE(G9:P9)</f>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -755,8 +744,12 @@
       <c r="P10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q38" si="0">AVERAGE(G10:P10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -791,8 +784,12 @@
       <c r="P11" s="7">
         <v>168.78</v>
       </c>
-    </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>146.36700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -827,8 +824,12 @@
       <c r="P12" s="3">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -863,8 +864,12 @@
       <c r="P13" s="3">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>3.4859999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -899,8 +904,12 @@
       <c r="P14" s="3">
         <v>83917</v>
       </c>
-    </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>83921.600000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -935,8 +944,12 @@
       <c r="P15" s="3">
         <v>960.2</v>
       </c>
-    </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>960.2700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -971,8 +984,12 @@
       <c r="P16" s="3">
         <v>87.39</v>
       </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>87.393999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1007,8 +1024,12 @@
       <c r="P17" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1043,8 +1064,12 @@
       <c r="P18" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E19" s="12">
         <v>1000</v>
       </c>
@@ -1081,8 +1106,12 @@
       <c r="P19" s="3">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>1.4740000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -1117,8 +1146,12 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -1153,8 +1186,12 @@
       <c r="P21" s="3">
         <v>159.69</v>
       </c>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>156.25900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -1189,8 +1226,12 @@
       <c r="P22" s="3">
         <v>3.11</v>
       </c>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>2.7519999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1225,8 +1266,12 @@
       <c r="P23" s="3">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>3.7300000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1261,8 +1306,12 @@
       <c r="P24" s="3">
         <v>838948</v>
       </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>839030.4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -1297,8 +1346,12 @@
       <c r="P25" s="3">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>960.7700000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1333,8 +1386,12 @@
       <c r="P26" s="3">
         <v>873.12</v>
       </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>873.29300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1361,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>30</v>
@@ -1369,8 +1426,12 @@
       <c r="P27" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1405,8 +1466,12 @@
       <c r="P28" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E29" s="12">
         <v>4000</v>
       </c>
@@ -1443,8 +1508,12 @@
       <c r="P29" s="11">
         <v>666.24</v>
       </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>673.85599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -1479,8 +1548,12 @@
       <c r="P30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -1515,8 +1588,12 @@
       <c r="P31" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1042.443</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -1551,8 +1628,12 @@
       <c r="P32" s="11">
         <v>806.18</v>
       </c>
-    </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>814.93900000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="12"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -1587,8 +1668,12 @@
       <c r="P33" s="11">
         <v>821.09</v>
       </c>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>830.65999999999985</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="12"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -1623,8 +1708,12 @@
       <c r="P34" s="11">
         <v>2017514</v>
       </c>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>2008499.5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="12"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1659,8 +1748,12 @@
       <c r="P35" s="11">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>960.70000000000016</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -1695,8 +1788,12 @@
       <c r="P36" s="11">
         <v>2099.9899999999998</v>
       </c>
-    </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>2090.6689999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -1731,8 +1828,12 @@
       <c r="P37" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="12"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1753,22 +1854,26 @@
         <v>33</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>33</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1776,7 +1881,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1797,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:K42"/>
+  <dimension ref="E7:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1914,7 @@
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +1925,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="12">
         <v>100</v>
       </c>
@@ -1865,8 +1970,12 @@
       <c r="K9" s="1">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>AVERAGE(G9:K9)</f>
+        <v>3.492</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -1886,8 +1995,12 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" ref="L10:L38" si="0">AVERAGE(G10:K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -1907,8 +2020,12 @@
       <c r="K11" s="1">
         <v>165.61</v>
       </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>167.39400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -1928,8 +2045,12 @@
       <c r="K12" s="1">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>5.1319999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1949,8 +2070,12 @@
       <c r="K13" s="1">
         <v>6.31</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -1970,8 +2095,12 @@
       <c r="K14" s="1">
         <v>83745</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>83743.600000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1991,8 +2120,12 @@
       <c r="K15" s="1">
         <v>960.1</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>960.22</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -2012,8 +2145,12 @@
       <c r="K16" s="1">
         <v>87.22</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>87.213999999999984</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -2033,8 +2170,12 @@
       <c r="K17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -2054,8 +2195,12 @@
       <c r="K18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="12">
         <v>1000</v>
       </c>
@@ -2077,8 +2222,12 @@
       <c r="K19" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -2098,8 +2247,12 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -2119,8 +2272,12 @@
       <c r="K21" s="1">
         <v>1880</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -2140,8 +2297,12 @@
       <c r="K22" s="1">
         <v>1680</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -2161,8 +2322,12 @@
       <c r="K23" s="1">
         <v>1730</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -2182,8 +2347,12 @@
       <c r="K24" s="1">
         <v>356887</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>357634.4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -2203,8 +2372,12 @@
       <c r="K25" s="1">
         <v>960.8</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -2224,8 +2397,12 @@
       <c r="K26" s="1">
         <v>371.45</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>372.26599999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
@@ -2245,8 +2422,12 @@
       <c r="K27" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -2261,13 +2442,17 @@
         <v>25</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="12">
         <v>4000</v>
       </c>
@@ -2289,8 +2474,12 @@
       <c r="K29" s="5">
         <v>8070</v>
       </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>8104</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -2310,8 +2499,12 @@
       <c r="K30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0.26380000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -2331,8 +2524,12 @@
       <c r="K31" s="5">
         <v>9630</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -2352,8 +2549,12 @@
       <c r="K32" s="5">
         <v>9300</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="12"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2373,8 +2574,12 @@
       <c r="K33" s="5">
         <v>9360</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="12"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -2394,8 +2599,12 @@
       <c r="K34" s="5">
         <v>371433</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>370004.2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="12"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -2415,8 +2624,12 @@
       <c r="K35" s="5">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>960.81999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2436,8 +2649,12 @@
       <c r="K36" s="5">
         <v>386.56</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>385.10199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -2457,8 +2674,12 @@
       <c r="K37" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="12"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -2473,19 +2694,23 @@
         <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2504,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:S41"/>
+  <dimension ref="E7:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2743,7 @@
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
@@ -2529,7 +2754,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9" s="12">
         <v>100</v>
       </c>
@@ -2560,433 +2785,388 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>119.35</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="H9" s="1">
-        <v>106.8</v>
+        <v>71.75</v>
       </c>
       <c r="I9" s="1">
-        <v>113.06</v>
+        <v>78.56</v>
       </c>
       <c r="J9" s="5">
-        <v>88.83</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="K9" s="5">
-        <v>114.95</v>
+        <v>74.239999999999995</v>
       </c>
       <c r="L9" s="7">
-        <v>121.48</v>
+        <v>64.42</v>
       </c>
       <c r="M9" s="7">
-        <v>24.15</v>
+        <v>72.209999999999994</v>
       </c>
       <c r="N9" s="7">
-        <v>19.600000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="O9" s="7">
-        <v>64.42</v>
+        <v>67.89</v>
       </c>
       <c r="P9" s="7">
-        <v>72.209999999999994</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>60.6</v>
-      </c>
-      <c r="R9" s="7">
-        <v>67.89</v>
-      </c>
-      <c r="S9" s="7">
         <v>61.55</v>
       </c>
-    </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f>AVERAGE(G9:P9)</f>
+        <v>70.424000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.50900000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0.50900000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.51100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>0.50900000000000001</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>0.51100000000000001</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>0.314</v>
+        <v>0.51</v>
       </c>
       <c r="M10" s="7">
-        <v>0.50700000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="N10" s="7">
-        <v>0.50700000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="O10" s="7">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="P10" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.505</v>
-      </c>
-      <c r="S10" s="7">
         <v>0.50800000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q38" si="0">AVERAGE(G10:P10)</f>
+        <v>0.2392</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>583.57000000000005</v>
+        <v>584.15</v>
       </c>
       <c r="H11" s="1">
-        <v>385.9</v>
+        <v>512.62</v>
       </c>
       <c r="I11" s="1">
-        <v>425.78</v>
+        <v>461.31</v>
       </c>
       <c r="J11" s="5">
-        <v>617.54</v>
+        <v>497.46</v>
       </c>
       <c r="K11" s="5">
-        <v>589.52</v>
+        <v>499.42</v>
       </c>
       <c r="L11" s="7">
-        <v>506.02</v>
+        <v>606.11</v>
       </c>
       <c r="M11" s="7">
-        <v>321.60000000000002</v>
+        <v>671.07</v>
       </c>
       <c r="N11" s="7">
-        <v>347.33</v>
+        <v>461.31</v>
       </c>
       <c r="O11" s="7">
-        <v>606.11</v>
+        <v>466.45</v>
       </c>
       <c r="P11" s="7">
-        <v>671.07</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>461.31</v>
-      </c>
-      <c r="R11" s="7">
-        <v>466.45</v>
-      </c>
-      <c r="S11" s="7">
         <v>502.88</v>
       </c>
-    </row>
-    <row r="12" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>526.27800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>216.15</v>
+        <v>112.98</v>
       </c>
       <c r="H12" s="1">
-        <v>198.34</v>
+        <v>113.28</v>
       </c>
       <c r="I12" s="1">
-        <v>210.7</v>
+        <v>118.94</v>
       </c>
       <c r="J12" s="5">
-        <v>123.86</v>
+        <v>122.28</v>
       </c>
       <c r="K12" s="5">
-        <v>215.34</v>
-      </c>
-      <c r="L12" s="8">
-        <v>226.5</v>
+        <v>112.91</v>
+      </c>
+      <c r="L12" s="3">
+        <v>101</v>
       </c>
       <c r="M12" s="3">
-        <v>37.369999999999997</v>
+        <v>112.19</v>
       </c>
       <c r="N12" s="3">
-        <v>28.49</v>
+        <v>98.72</v>
       </c>
       <c r="O12" s="3">
-        <v>101</v>
+        <v>101.75</v>
       </c>
       <c r="P12" s="3">
-        <v>112.19</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>98.72</v>
-      </c>
-      <c r="R12" s="3">
-        <v>101.75</v>
-      </c>
-      <c r="S12" s="3">
         <v>91.27</v>
       </c>
-    </row>
-    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>108.532</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>236.7</v>
+        <v>131.93</v>
       </c>
       <c r="H13" s="1">
-        <v>219.98</v>
+        <v>133.83000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>233.62</v>
+        <v>134.97</v>
       </c>
       <c r="J13" s="5">
-        <v>140.46</v>
+        <v>139</v>
       </c>
       <c r="K13" s="5">
-        <v>239.35</v>
-      </c>
-      <c r="L13" s="8">
-        <v>254.8</v>
+        <v>129.56</v>
+      </c>
+      <c r="L13" s="3">
+        <v>122.07</v>
       </c>
       <c r="M13" s="3">
-        <v>43.42</v>
+        <v>156.57</v>
       </c>
       <c r="N13" s="3">
-        <v>34.299999999999997</v>
+        <v>114.91</v>
       </c>
       <c r="O13" s="3">
-        <v>122.07</v>
+        <v>118.23</v>
       </c>
       <c r="P13" s="3">
-        <v>156.57</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>114.91</v>
-      </c>
-      <c r="R13" s="3">
-        <v>118.23</v>
-      </c>
-      <c r="S13" s="3">
         <v>102.61</v>
       </c>
-    </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>128.36799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>74978</v>
+        <v>78279</v>
       </c>
       <c r="H14" s="1">
-        <v>75819</v>
+        <v>78311</v>
       </c>
       <c r="I14" s="1">
-        <v>75408</v>
+        <v>77802</v>
       </c>
       <c r="J14" s="5">
-        <v>77072</v>
+        <v>77638</v>
       </c>
       <c r="K14" s="5">
-        <v>75269</v>
-      </c>
-      <c r="L14" s="8">
-        <v>74831</v>
+        <v>78127</v>
+      </c>
+      <c r="L14" s="3">
+        <v>78844</v>
       </c>
       <c r="M14" s="3">
-        <v>81943</v>
+        <v>78271</v>
       </c>
       <c r="N14" s="3">
-        <v>82298</v>
+        <v>79125</v>
       </c>
       <c r="O14" s="3">
-        <v>78844</v>
+        <v>78576</v>
       </c>
       <c r="P14" s="3">
-        <v>78271</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>79125</v>
-      </c>
-      <c r="R14" s="3">
-        <v>78576</v>
-      </c>
-      <c r="S14" s="3">
         <v>79046</v>
       </c>
-    </row>
-    <row r="15" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>78401.899999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="1">
-        <v>960.5</v>
+        <v>961</v>
       </c>
       <c r="H15" s="1">
-        <v>960.8</v>
+        <v>960.6</v>
       </c>
       <c r="I15" s="1">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J15" s="5">
-        <v>960.1</v>
+        <v>960.4</v>
       </c>
       <c r="K15" s="5">
+        <v>960.4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>960.6</v>
+      </c>
+      <c r="M15" s="3">
+        <v>960.3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>960.6</v>
+      </c>
+      <c r="O15" s="3">
+        <v>961</v>
+      </c>
+      <c r="P15" s="3">
         <v>960.9</v>
       </c>
-      <c r="L15" s="8">
-        <v>960.7</v>
-      </c>
-      <c r="M15" s="3">
-        <v>960.5</v>
-      </c>
-      <c r="N15" s="3">
-        <v>960.7</v>
-      </c>
-      <c r="O15" s="3">
-        <v>960.6</v>
-      </c>
-      <c r="P15" s="3">
-        <v>960.3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>960.6</v>
-      </c>
-      <c r="R15" s="3">
-        <v>961</v>
-      </c>
-      <c r="S15" s="3">
-        <v>960.9</v>
-      </c>
-    </row>
-    <row r="16" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>960.68000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>78.06</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="H16" s="1">
-        <v>78.92</v>
+        <v>81.52</v>
       </c>
       <c r="I16" s="1">
-        <v>78.55</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="J16" s="5">
-        <v>80.28</v>
+        <v>80.84</v>
       </c>
       <c r="K16" s="5">
-        <v>78.33</v>
-      </c>
-      <c r="L16" s="8">
-        <v>77.89</v>
+        <v>81.349999999999994</v>
+      </c>
+      <c r="L16" s="3">
+        <v>82.08</v>
       </c>
       <c r="M16" s="3">
-        <v>85.32</v>
+        <v>81.510000000000005</v>
       </c>
       <c r="N16" s="3">
-        <v>85.66</v>
+        <v>82.37</v>
       </c>
       <c r="O16" s="3">
-        <v>82.08</v>
+        <v>81.77</v>
       </c>
       <c r="P16" s="3">
-        <v>81.510000000000005</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>82.37</v>
-      </c>
-      <c r="R16" s="3">
-        <v>81.77</v>
-      </c>
-      <c r="S16" s="3">
         <v>82.26</v>
       </c>
-    </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>81.611999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>29</v>
@@ -2994,18 +3174,13 @@
       <c r="P18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E19" s="16">
+      <c r="Q18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="12">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3026,9 +3201,28 @@
       <c r="K19" s="6">
         <v>8790</v>
       </c>
-    </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E20" s="16"/>
+      <c r="L19" s="8">
+        <v>8560</v>
+      </c>
+      <c r="M19" s="3">
+        <v>8550</v>
+      </c>
+      <c r="N19" s="3">
+        <v>8560</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8570</v>
+      </c>
+      <c r="P19" s="3">
+        <v>8530</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -3047,9 +3241,28 @@
       <c r="K20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E21" s="16"/>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -3068,9 +3281,28 @@
       <c r="K21" s="6">
         <v>10950</v>
       </c>
-    </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E22" s="16"/>
+      <c r="L21" s="8">
+        <v>10480</v>
+      </c>
+      <c r="M21" s="3">
+        <v>10620</v>
+      </c>
+      <c r="N21" s="3">
+        <v>10610</v>
+      </c>
+      <c r="O21" s="3">
+        <v>10540</v>
+      </c>
+      <c r="P21" s="3">
+        <v>10640</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>10819</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3089,9 +3321,28 @@
       <c r="K22" s="6">
         <v>10120</v>
       </c>
-    </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E23" s="16"/>
+      <c r="L22" s="8">
+        <v>9820</v>
+      </c>
+      <c r="M22" s="3">
+        <v>9810</v>
+      </c>
+      <c r="N22" s="3">
+        <v>9830</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9870</v>
+      </c>
+      <c r="P22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3110,9 +3361,28 @@
       <c r="K23" s="6">
         <v>10160</v>
       </c>
-    </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E24" s="16"/>
+      <c r="L23" s="8">
+        <v>9850</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9840</v>
+      </c>
+      <c r="N23" s="3">
+        <v>9860</v>
+      </c>
+      <c r="O23" s="3">
+        <v>9940</v>
+      </c>
+      <c r="P23" s="3">
+        <v>9820</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -3131,9 +3401,28 @@
       <c r="K24" s="6">
         <v>86051</v>
       </c>
-    </row>
-    <row r="25" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="16"/>
+      <c r="L24" s="8">
+        <v>88148</v>
+      </c>
+      <c r="M24" s="3">
+        <v>88190</v>
+      </c>
+      <c r="N24" s="3">
+        <v>88093</v>
+      </c>
+      <c r="O24" s="3">
+        <v>87985</v>
+      </c>
+      <c r="P24" s="3">
+        <v>88363</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>86934.1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -3152,9 +3441,28 @@
       <c r="K25" s="6">
         <v>960.5</v>
       </c>
-    </row>
-    <row r="26" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="16"/>
+      <c r="L25" s="8">
+        <v>960.5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>960.5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>960.5</v>
+      </c>
+      <c r="O25" s="3">
+        <v>960.6</v>
+      </c>
+      <c r="P25" s="3">
+        <v>960.5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -3173,51 +3481,108 @@
       <c r="K26" s="6">
         <v>89.59</v>
       </c>
-    </row>
-    <row r="27" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E27" s="16"/>
+      <c r="L26" s="8">
+        <v>91.77</v>
+      </c>
+      <c r="M26" s="3">
+        <v>91.81</v>
+      </c>
+      <c r="N26" s="3">
+        <v>91.71</v>
+      </c>
+      <c r="O26" s="3">
+        <v>91.59</v>
+      </c>
+      <c r="P26" s="3">
+        <v>92</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>90.499000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="17">
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E29" s="12">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3238,9 +3603,28 @@
       <c r="K29" s="1">
         <v>36350</v>
       </c>
-    </row>
-    <row r="30" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
+      <c r="L29" s="8">
+        <v>37840</v>
+      </c>
+      <c r="M29" s="3">
+        <v>37640</v>
+      </c>
+      <c r="N29" s="3">
+        <v>37520</v>
+      </c>
+      <c r="O29" s="3">
+        <v>37740</v>
+      </c>
+      <c r="P29" s="3">
+        <v>37480</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>37057</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
@@ -3249,9 +3633,13 @@
       <c r="I30" s="1"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E31" s="17"/>
+      <c r="Q30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="12"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
@@ -3270,9 +3658,28 @@
       <c r="K31" s="1">
         <v>42180</v>
       </c>
-    </row>
-    <row r="32" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E32" s="17"/>
+      <c r="L31" s="7">
+        <v>47150</v>
+      </c>
+      <c r="M31" s="7">
+        <v>44980</v>
+      </c>
+      <c r="N31" s="7">
+        <v>45930</v>
+      </c>
+      <c r="O31" s="7">
+        <v>45640</v>
+      </c>
+      <c r="P31" s="7">
+        <v>44930</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E32" s="12"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
@@ -3291,9 +3698,28 @@
       <c r="K32" s="1">
         <v>41090</v>
       </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="17"/>
+      <c r="L32" s="7">
+        <v>42740</v>
+      </c>
+      <c r="M32" s="7">
+        <v>42550</v>
+      </c>
+      <c r="N32" s="7">
+        <v>42310</v>
+      </c>
+      <c r="O32" s="7">
+        <v>42690</v>
+      </c>
+      <c r="P32" s="7">
+        <v>42310</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>41862</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E33" s="12"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3312,9 +3738,28 @@
       <c r="K33" s="1">
         <v>41220</v>
       </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="17"/>
+      <c r="L33" s="8">
+        <v>42840</v>
+      </c>
+      <c r="M33" s="3">
+        <v>42850</v>
+      </c>
+      <c r="N33" s="3">
+        <v>42360</v>
+      </c>
+      <c r="O33" s="3">
+        <v>42740</v>
+      </c>
+      <c r="P33" s="3">
+        <v>42790</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>42015</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="12"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3333,9 +3778,28 @@
       <c r="K34" s="1">
         <v>91051</v>
       </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="17"/>
+      <c r="L34" s="8">
+        <v>87569</v>
+      </c>
+      <c r="M34" s="3">
+        <v>87941</v>
+      </c>
+      <c r="N34" s="3">
+        <v>88244</v>
+      </c>
+      <c r="O34" s="3">
+        <v>87767</v>
+      </c>
+      <c r="P34" s="3">
+        <v>88353</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>89371</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E35" s="12"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3354,9 +3818,28 @@
       <c r="K35" s="1">
         <v>960.8</v>
       </c>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="17"/>
+      <c r="L35" s="8">
+        <v>960.6</v>
+      </c>
+      <c r="M35" s="3">
+        <v>960.6</v>
+      </c>
+      <c r="N35" s="3">
+        <v>961</v>
+      </c>
+      <c r="O35" s="3">
+        <v>961</v>
+      </c>
+      <c r="P35" s="3">
+        <v>961</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>960.81000000000017</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3375,9 +3858,28 @@
       <c r="K36" s="1">
         <v>94.77</v>
       </c>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="17"/>
+      <c r="L36" s="8">
+        <v>91.16</v>
+      </c>
+      <c r="M36" s="3">
+        <v>91.55</v>
+      </c>
+      <c r="N36" s="3">
+        <v>91.83</v>
+      </c>
+      <c r="O36" s="3">
+        <v>91.33</v>
+      </c>
+      <c r="P36" s="3">
+        <v>91.94</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>93.01700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
@@ -3396,12 +3898,28 @@
       <c r="K37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="17"/>
+      <c r="L37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" s="12"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
@@ -3420,8 +3938,27 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>

--- a/Wyniki 3/S1/S1-GraphQL2 (resolved).xlsx
+++ b/Wyniki 3/S1/S1-GraphQL2 (resolved).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED9687-9523-455C-A786-3831AD44E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E38130-01B5-44A0-AFC0-BD596628954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="51">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>1,1GB</t>
+  </si>
+  <si>
+    <t>960MB</t>
+  </si>
+  <si>
+    <t>962MB</t>
+  </si>
+  <si>
+    <t>961MB</t>
+  </si>
+  <si>
+    <t>237MB</t>
+  </si>
+  <si>
+    <t>234MB</t>
+  </si>
+  <si>
+    <t>230MB</t>
+  </si>
+  <si>
+    <t>235MB</t>
   </si>
 </sst>
 </file>
@@ -295,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,7 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +346,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:Q41"/>
+  <dimension ref="E7:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,15 +667,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -668,7 +701,7 @@
       </c>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -689,19 +722,19 @@
       <c r="K9" s="1">
         <v>1.87</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>1.82</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>1.84</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>1.83</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>1.81</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>1.81</v>
       </c>
       <c r="Q9">
@@ -710,7 +743,7 @@
       </c>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -729,28 +762,28 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q38" si="0">AVERAGE(G10:P10)</f>
+        <f t="shared" ref="Q10:Q28" si="0">AVERAGE(G10:P10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,19 +802,19 @@
       <c r="K11" s="1">
         <v>145.13999999999999</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>169.14</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>160.72</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>157.38999999999999</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>159.16999999999999</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>168.78</v>
       </c>
       <c r="Q11">
@@ -790,7 +823,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,7 +842,7 @@
       <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>3.06</v>
       </c>
       <c r="M12" s="3">
@@ -830,7 +863,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,7 +882,7 @@
       <c r="K13" s="1">
         <v>3.5</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>3.62</v>
       </c>
       <c r="M13" s="3">
@@ -870,7 +903,7 @@
       </c>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,7 +922,7 @@
       <c r="K14" s="1">
         <v>83915</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>83919</v>
       </c>
       <c r="M14" s="3">
@@ -910,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -929,7 +962,7 @@
       <c r="K15" s="1">
         <v>960.3</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>960.4</v>
       </c>
       <c r="M15" s="3">
@@ -950,7 +983,7 @@
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,7 +1002,7 @@
       <c r="K16" s="1">
         <v>87.39</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>87.38</v>
       </c>
       <c r="M16" s="3">
@@ -990,7 +1023,7 @@
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1042,19 @@
       <c r="K17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="Q17" t="e">
@@ -1030,7 +1063,7 @@
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,19 +1082,19 @@
       <c r="K18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q18" t="e">
@@ -1070,7 +1103,7 @@
       </c>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1091,7 +1124,7 @@
       <c r="K19" s="2">
         <v>1.4</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>1.55</v>
       </c>
       <c r="M19" s="3">
@@ -1112,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1164,7 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>0</v>
       </c>
       <c r="M20" s="3">
@@ -1152,7 +1185,7 @@
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1204,7 @@
       <c r="K21" s="2">
         <v>147.22</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>157.19999999999999</v>
       </c>
       <c r="M21" s="3">
@@ -1192,7 +1225,7 @@
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E22" s="12"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1244,7 @@
       <c r="K22" s="2">
         <v>2.58</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>3.08</v>
       </c>
       <c r="M22" s="3">
@@ -1232,7 +1265,7 @@
       </c>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1284,7 @@
       <c r="K23" s="2">
         <v>3.6</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>4.13</v>
       </c>
       <c r="M23" s="3">
@@ -1272,7 +1305,7 @@
       </c>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E24" s="12"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1324,7 @@
       <c r="K24" s="2">
         <v>839104</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>838985</v>
       </c>
       <c r="M24" s="3">
@@ -1312,7 +1345,7 @@
       </c>
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1364,7 @@
       <c r="K25" s="2">
         <v>960.9</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>960.8</v>
       </c>
       <c r="M25" s="3">
@@ -1352,7 +1385,7 @@
       </c>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1404,7 @@
       <c r="K26" s="2">
         <v>873.28</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>873.21</v>
       </c>
       <c r="M26" s="3">
@@ -1392,7 +1425,7 @@
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1411,19 +1444,19 @@
       <c r="K27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="Q27" t="e">
@@ -1432,7 +1465,7 @@
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,19 +1484,19 @@
       <c r="K28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="Q28" t="e">
@@ -1472,49 +1505,38 @@
       </c>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E29" s="12">
-        <v>4000</v>
+      <c r="E29" s="16">
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>664.26</v>
+        <v>4.53</v>
       </c>
       <c r="H29" s="1">
-        <v>658.41</v>
+        <v>2.83</v>
       </c>
       <c r="I29" s="1">
-        <v>660.34</v>
+        <v>3.31</v>
       </c>
       <c r="J29" s="1">
-        <v>664.7</v>
+        <v>2.6</v>
       </c>
       <c r="K29" s="1">
-        <v>664.05</v>
-      </c>
-      <c r="L29" s="10">
-        <v>694.09</v>
-      </c>
-      <c r="M29" s="11">
-        <v>694.27</v>
-      </c>
-      <c r="N29" s="11">
-        <v>673.17</v>
-      </c>
-      <c r="O29" s="11">
-        <v>699.03</v>
-      </c>
-      <c r="P29" s="11">
-        <v>666.24</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>673.85599999999999</v>
-      </c>
+        <v>2.73</v>
+      </c>
+      <c r="L29" s="9">
+        <f>AVERAGE(G29:K29)</f>
+        <v>3.2</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1533,368 +1555,656 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L30" s="9">
+        <f t="shared" ref="L30:L38" si="1">AVERAGE(G30:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>1060</v>
+        <v>258.55</v>
       </c>
       <c r="H31" s="1">
-        <v>945.71</v>
+        <v>158.44999999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>935.52</v>
+        <v>83.72</v>
       </c>
       <c r="J31" s="1">
-        <v>984.07</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>949.13</v>
-      </c>
-      <c r="L31" s="10">
-        <v>1170</v>
-      </c>
-      <c r="M31" s="11">
-        <v>1130</v>
-      </c>
-      <c r="N31" s="11">
-        <v>1250</v>
-      </c>
-      <c r="O31" s="11">
-        <v>1000</v>
-      </c>
-      <c r="P31" s="11">
-        <v>1000</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>1042.443</v>
-      </c>
+        <v>87.44</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="1"/>
+        <v>148.44200000000001</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>806.13</v>
+        <v>6.79</v>
       </c>
       <c r="H32" s="1">
-        <v>796.33</v>
+        <v>6.05</v>
       </c>
       <c r="I32" s="1">
-        <v>796.44</v>
+        <v>7.56</v>
       </c>
       <c r="J32" s="1">
-        <v>800.42</v>
+        <v>5.6</v>
       </c>
       <c r="K32" s="1">
-        <v>801.19</v>
-      </c>
-      <c r="L32" s="10">
-        <v>839.88</v>
-      </c>
-      <c r="M32" s="11">
-        <v>842.02</v>
-      </c>
-      <c r="N32" s="11">
-        <v>814.71</v>
-      </c>
-      <c r="O32" s="11">
-        <v>846.09</v>
-      </c>
-      <c r="P32" s="11">
-        <v>806.18</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>814.93900000000008</v>
-      </c>
+        <v>5.71</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="1"/>
+        <v>6.3420000000000005</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>827.38</v>
+        <v>11.21</v>
       </c>
       <c r="H33" s="1">
-        <v>812.05</v>
+        <v>8.85</v>
       </c>
       <c r="I33" s="1">
-        <v>810.15</v>
+        <v>10.39</v>
       </c>
       <c r="J33" s="1">
-        <v>815.03</v>
+        <v>7.88</v>
       </c>
       <c r="K33" s="1">
-        <v>815.24</v>
-      </c>
-      <c r="L33" s="10">
-        <v>854.25</v>
-      </c>
-      <c r="M33" s="11">
-        <v>858.04</v>
-      </c>
-      <c r="N33" s="11">
-        <v>832.76</v>
-      </c>
-      <c r="O33" s="11">
-        <v>860.61</v>
-      </c>
-      <c r="P33" s="11">
-        <v>821.09</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>830.65999999999985</v>
-      </c>
+        <v>8.34</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="1"/>
+        <v>9.3339999999999996</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>2019930</v>
+        <v>1672887</v>
       </c>
       <c r="H34" s="1">
-        <v>2027034</v>
+        <v>1675729</v>
       </c>
       <c r="I34" s="1">
-        <v>2024679</v>
+        <v>1674939</v>
       </c>
       <c r="J34" s="1">
-        <v>2019383</v>
+        <v>1676116</v>
       </c>
       <c r="K34" s="1">
-        <v>2020176</v>
-      </c>
-      <c r="L34" s="10">
-        <v>1984368</v>
-      </c>
-      <c r="M34" s="11">
-        <v>1984160</v>
-      </c>
-      <c r="N34" s="11">
-        <v>2009143</v>
-      </c>
-      <c r="O34" s="11">
-        <v>1978608</v>
-      </c>
-      <c r="P34" s="11">
-        <v>2017514</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>2008499.5</v>
-      </c>
+        <v>1675882</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="1"/>
+        <v>1675110.6</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H35" s="1">
         <v>960.9</v>
       </c>
-      <c r="H35" s="1">
-        <v>960.5</v>
-      </c>
       <c r="I35" s="1">
-        <v>960.7</v>
+        <v>960.6</v>
       </c>
       <c r="J35" s="1">
-        <v>960.5</v>
+        <v>960.8</v>
       </c>
       <c r="K35" s="1">
         <v>960.9</v>
       </c>
-      <c r="L35" s="10">
-        <v>960.6</v>
-      </c>
-      <c r="M35" s="11">
-        <v>960.6</v>
-      </c>
-      <c r="N35" s="11">
-        <v>960.8</v>
-      </c>
-      <c r="O35" s="11">
-        <v>960.8</v>
-      </c>
-      <c r="P35" s="11">
-        <v>960.7</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>960.70000000000016</v>
-      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="1"/>
+        <v>960.75999999999988</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>2102.09</v>
+        <v>1741.5</v>
       </c>
       <c r="H36" s="1">
-        <v>2110.39</v>
+        <v>1743.96</v>
       </c>
       <c r="I36" s="1">
-        <v>2107.41</v>
+        <v>1743.62</v>
       </c>
       <c r="J36" s="1">
-        <v>2102.4699999999998</v>
+        <v>1744.5</v>
       </c>
       <c r="K36" s="1">
-        <v>2102.48</v>
-      </c>
-      <c r="L36" s="10">
-        <v>2065.86</v>
-      </c>
-      <c r="M36" s="11">
-        <v>2065.63</v>
-      </c>
-      <c r="N36" s="11">
-        <v>2091.08</v>
-      </c>
-      <c r="O36" s="11">
-        <v>2059.29</v>
-      </c>
-      <c r="P36" s="11">
-        <v>2099.9899999999998</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>2090.6689999999994</v>
-      </c>
+        <v>1744.14</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="1"/>
+        <v>1743.5439999999999</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E37" s="12"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" t="e">
-        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L37" s="9" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
     </row>
     <row r="38" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E38" s="12"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>664.26</v>
+      </c>
+      <c r="H39" s="2">
+        <v>658.41</v>
+      </c>
+      <c r="I39" s="2">
+        <v>660.34</v>
+      </c>
+      <c r="J39" s="2">
+        <v>664.7</v>
+      </c>
+      <c r="K39" s="2">
+        <v>664.05</v>
+      </c>
+      <c r="L39" s="11">
+        <v>694.09</v>
+      </c>
+      <c r="M39" s="12">
+        <v>694.27</v>
+      </c>
+      <c r="N39" s="12">
+        <v>673.17</v>
+      </c>
+      <c r="O39" s="12">
+        <v>699.03</v>
+      </c>
+      <c r="P39" s="12">
+        <v>666.24</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" ref="Q39:Q48" si="2">AVERAGE(G39:P39)</f>
+        <v>673.85599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="16"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
+        <v>0</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0</v>
+      </c>
+      <c r="O40" s="12">
+        <v>0</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="16"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H41" s="2">
+        <v>945.71</v>
+      </c>
+      <c r="I41" s="2">
+        <v>935.52</v>
+      </c>
+      <c r="J41" s="2">
+        <v>984.07</v>
+      </c>
+      <c r="K41" s="2">
+        <v>949.13</v>
+      </c>
+      <c r="L41" s="11">
+        <v>1170</v>
+      </c>
+      <c r="M41" s="12">
+        <v>1130</v>
+      </c>
+      <c r="N41" s="12">
+        <v>1250</v>
+      </c>
+      <c r="O41" s="12">
+        <v>1000</v>
+      </c>
+      <c r="P41" s="12">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="2"/>
+        <v>1042.443</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="16"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>806.13</v>
+      </c>
+      <c r="H42" s="2">
+        <v>796.33</v>
+      </c>
+      <c r="I42" s="2">
+        <v>796.44</v>
+      </c>
+      <c r="J42" s="2">
+        <v>800.42</v>
+      </c>
+      <c r="K42" s="2">
+        <v>801.19</v>
+      </c>
+      <c r="L42" s="11">
+        <v>839.88</v>
+      </c>
+      <c r="M42" s="12">
+        <v>842.02</v>
+      </c>
+      <c r="N42" s="12">
+        <v>814.71</v>
+      </c>
+      <c r="O42" s="12">
+        <v>846.09</v>
+      </c>
+      <c r="P42" s="12">
+        <v>806.18</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="2"/>
+        <v>814.93900000000008</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="16"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>827.38</v>
+      </c>
+      <c r="H43" s="2">
+        <v>812.05</v>
+      </c>
+      <c r="I43" s="2">
+        <v>810.15</v>
+      </c>
+      <c r="J43" s="2">
+        <v>815.03</v>
+      </c>
+      <c r="K43" s="2">
+        <v>815.24</v>
+      </c>
+      <c r="L43" s="11">
+        <v>854.25</v>
+      </c>
+      <c r="M43" s="12">
+        <v>858.04</v>
+      </c>
+      <c r="N43" s="12">
+        <v>832.76</v>
+      </c>
+      <c r="O43" s="12">
+        <v>860.61</v>
+      </c>
+      <c r="P43" s="12">
+        <v>821.09</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="2"/>
+        <v>830.65999999999985</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="16"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2019930</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2027034</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2024679</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2019383</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2020176</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1984368</v>
+      </c>
+      <c r="M44" s="12">
+        <v>1984160</v>
+      </c>
+      <c r="N44" s="12">
+        <v>2009143</v>
+      </c>
+      <c r="O44" s="12">
+        <v>1978608</v>
+      </c>
+      <c r="P44" s="12">
+        <v>2017514</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" si="2"/>
+        <v>2008499.5</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="16"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="K45" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="L45" s="11">
+        <v>960.6</v>
+      </c>
+      <c r="M45" s="12">
+        <v>960.6</v>
+      </c>
+      <c r="N45" s="12">
+        <v>960.8</v>
+      </c>
+      <c r="O45" s="12">
+        <v>960.8</v>
+      </c>
+      <c r="P45" s="12">
+        <v>960.7</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="2"/>
+        <v>960.70000000000016</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2102.09</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2110.39</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2107.41</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2102.4699999999998</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2102.48</v>
+      </c>
+      <c r="L46" s="11">
+        <v>2065.86</v>
+      </c>
+      <c r="M46" s="12">
+        <v>2065.63</v>
+      </c>
+      <c r="N46" s="12">
+        <v>2091.08</v>
+      </c>
+      <c r="O46" s="12">
+        <v>2059.29</v>
+      </c>
+      <c r="P46" s="12">
+        <v>2099.9899999999998</v>
+      </c>
+      <c r="Q46" s="13">
+        <f t="shared" si="2"/>
+        <v>2090.6689999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E47" s="16"/>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="16"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q48" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1902,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:L42"/>
+  <dimension ref="E7:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,15 +2225,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -1949,7 +2259,7 @@
       </c>
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1976,7 +2286,7 @@
       </c>
     </row>
     <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +2311,7 @@
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2026,7 +2336,7 @@
       </c>
     </row>
     <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2361,7 @@
       </c>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2386,7 @@
       </c>
     </row>
     <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2411,7 @@
       </c>
     </row>
     <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2436,7 @@
       </c>
     </row>
     <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2461,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2176,7 +2486,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +2511,7 @@
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2228,7 +2538,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2563,7 @@
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2588,7 @@
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="12"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2303,7 +2613,7 @@
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2638,7 @@
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="12"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2353,7 +2663,7 @@
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2688,7 @@
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2713,7 @@
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2738,7 @@
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2453,209 +2763,209 @@
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="12">
-        <v>4000</v>
+      <c r="E29" s="16">
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>8140</v>
+        <v>3490</v>
       </c>
       <c r="H29" s="1">
-        <v>8070</v>
+        <v>3560</v>
       </c>
       <c r="I29" s="1">
-        <v>8060</v>
+        <v>3630</v>
       </c>
       <c r="J29" s="1">
-        <v>8180</v>
-      </c>
-      <c r="K29" s="5">
-        <v>8070</v>
+        <v>3550</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3540</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>8104</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.505</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0.50600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>0.26380000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>10040</v>
+        <v>5610</v>
       </c>
       <c r="H31" s="1">
-        <v>10710</v>
+        <v>4790</v>
       </c>
       <c r="I31" s="1">
-        <v>9630</v>
+        <v>4670</v>
       </c>
       <c r="J31" s="1">
-        <v>9680</v>
-      </c>
-      <c r="K31" s="5">
-        <v>9630</v>
+        <v>4710</v>
+      </c>
+      <c r="K31" s="4">
+        <v>4290</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>9938</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>9360</v>
+        <v>4240</v>
       </c>
       <c r="H32" s="1">
-        <v>9280</v>
+        <v>4150</v>
       </c>
       <c r="I32" s="1">
-        <v>9270</v>
+        <v>4250</v>
       </c>
       <c r="J32" s="1">
-        <v>9400</v>
-      </c>
-      <c r="K32" s="5">
-        <v>9300</v>
+        <v>4150</v>
+      </c>
+      <c r="K32" s="4">
+        <v>4140</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>9322</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>9390</v>
+        <v>4450</v>
       </c>
       <c r="H33" s="1">
-        <v>9330</v>
+        <v>4180</v>
       </c>
       <c r="I33" s="1">
-        <v>9300</v>
+        <v>4290</v>
       </c>
       <c r="J33" s="1">
-        <v>9490</v>
-      </c>
-      <c r="K33" s="5">
-        <v>9360</v>
+        <v>4190</v>
+      </c>
+      <c r="K33" s="4">
+        <v>4160</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>9374</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>368521</v>
+        <v>374061</v>
       </c>
       <c r="H34" s="1">
-        <v>371256</v>
+        <v>368914</v>
       </c>
       <c r="I34" s="1">
-        <v>371751</v>
+        <v>363276</v>
       </c>
       <c r="J34" s="1">
-        <v>367060</v>
-      </c>
-      <c r="K34" s="5">
-        <v>371433</v>
+        <v>369632</v>
+      </c>
+      <c r="K34" s="4">
+        <v>370058</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>370004.2</v>
+        <v>369188.2</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>960.8</v>
+        <v>960.7</v>
       </c>
       <c r="H35" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J35" s="1">
         <v>960.9</v>
       </c>
-      <c r="I35" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="K35" s="4">
         <v>960.7</v>
       </c>
-      <c r="K35" s="5">
-        <v>960.9</v>
-      </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>960.81999999999994</v>
+        <v>960.7</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>383.56</v>
+        <v>389.38</v>
       </c>
       <c r="H36" s="1">
-        <v>386.37</v>
+        <v>384.07</v>
       </c>
       <c r="I36" s="1">
-        <v>386.93</v>
+        <v>378.13</v>
       </c>
       <c r="J36" s="1">
-        <v>382.09</v>
-      </c>
-      <c r="K36" s="5">
-        <v>386.56</v>
+        <v>384.68</v>
+      </c>
+      <c r="K36" s="4">
+        <v>385.2</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>385.10199999999998</v>
+        <v>384.29200000000003</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="12"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2981,7 @@
       <c r="J37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L37" t="e">
@@ -2680,48 +2990,249 @@
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="12"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8140</v>
+      </c>
+      <c r="H39" s="2">
+        <v>8070</v>
+      </c>
+      <c r="I39" s="2">
+        <v>8060</v>
+      </c>
+      <c r="J39" s="2">
+        <v>8180</v>
+      </c>
+      <c r="K39" s="5">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="16"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="16"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10040</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10710</v>
+      </c>
+      <c r="I41" s="2">
+        <v>9630</v>
+      </c>
+      <c r="J41" s="2">
+        <v>9680</v>
+      </c>
+      <c r="K41" s="5">
+        <v>9630</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="16"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>9360</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9280</v>
+      </c>
+      <c r="I42" s="2">
+        <v>9270</v>
+      </c>
+      <c r="J42" s="2">
+        <v>9400</v>
+      </c>
+      <c r="K42" s="5">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="16"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9390</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9330</v>
+      </c>
+      <c r="I43" s="2">
+        <v>9300</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9490</v>
+      </c>
+      <c r="K43" s="5">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="16"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>368521</v>
+      </c>
+      <c r="H44" s="2">
+        <v>371256</v>
+      </c>
+      <c r="I44" s="2">
+        <v>371751</v>
+      </c>
+      <c r="J44" s="2">
+        <v>367060</v>
+      </c>
+      <c r="K44" s="5">
+        <v>371433</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="16"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J45" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K45" s="5">
+        <v>960.9</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>383.56</v>
+      </c>
+      <c r="H46" s="2">
+        <v>386.37</v>
+      </c>
+      <c r="I46" s="2">
+        <v>386.93</v>
+      </c>
+      <c r="J46" s="2">
+        <v>382.09</v>
+      </c>
+      <c r="K46" s="5">
+        <v>386.56</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="16"/>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="16"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2729,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:Q41"/>
+  <dimension ref="E7:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,15 +3255,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -2778,7 +3289,7 @@
       </c>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2793,25 +3304,25 @@
       <c r="I9" s="1">
         <v>78.56</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>81.010000000000005</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>74.239999999999995</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>64.42</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>72.209999999999994</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>60.6</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>67.89</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>61.55</v>
       </c>
       <c r="Q9">
@@ -2820,7 +3331,7 @@
       </c>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2833,25 +3344,25 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
         <v>0.51</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.51</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>0.35899999999999999</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>0.505</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>0.50800000000000001</v>
       </c>
       <c r="Q10">
@@ -2860,7 +3371,7 @@
       </c>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2873,25 +3384,25 @@
       <c r="I11" s="1">
         <v>461.31</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>497.46</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>499.42</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>606.11</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>671.07</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>461.31</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>466.45</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>502.88</v>
       </c>
       <c r="Q11">
@@ -2900,7 +3411,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2913,10 +3424,10 @@
       <c r="I12" s="1">
         <v>118.94</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>122.28</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>112.91</v>
       </c>
       <c r="L12" s="3">
@@ -2940,7 +3451,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2953,10 +3464,10 @@
       <c r="I13" s="1">
         <v>134.97</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>139</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>129.56</v>
       </c>
       <c r="L13" s="3">
@@ -2980,7 +3491,7 @@
       </c>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2993,10 +3504,10 @@
       <c r="I14" s="1">
         <v>77802</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>77638</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>78127</v>
       </c>
       <c r="L14" s="3">
@@ -3020,7 +3531,7 @@
       </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3033,10 +3544,10 @@
       <c r="I15" s="1">
         <v>961</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>960.4</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>960.4</v>
       </c>
       <c r="L15" s="3">
@@ -3060,7 +3571,7 @@
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3073,10 +3584,10 @@
       <c r="I16" s="1">
         <v>80.959999999999994</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>80.84</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>81.349999999999994</v>
       </c>
       <c r="L16" s="3">
@@ -3100,7 +3611,7 @@
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
@@ -3113,25 +3624,25 @@
       <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q17" t="e">
@@ -3140,7 +3651,7 @@
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3153,25 +3664,25 @@
       <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q18" t="e">
@@ -3180,7 +3691,7 @@
       </c>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3195,13 +3706,13 @@
       <c r="I19" s="2">
         <v>8850</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>8810</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>8790</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>8560</v>
       </c>
       <c r="M19" s="3">
@@ -3222,7 +3733,7 @@
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -3235,13 +3746,13 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
         <v>0</v>
       </c>
       <c r="M20" s="3">
@@ -3262,7 +3773,7 @@
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -3275,13 +3786,13 @@
       <c r="I21" s="2">
         <v>10900</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>11600</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>10950</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>10480</v>
       </c>
       <c r="M21" s="3">
@@ -3302,7 +3813,7 @@
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E22" s="12"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3315,13 +3826,13 @@
       <c r="I22" s="2">
         <v>10160</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>10110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>10120</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>9820</v>
       </c>
       <c r="M22" s="3">
@@ -3342,7 +3853,7 @@
       </c>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3355,13 +3866,13 @@
       <c r="I23" s="2">
         <v>10190</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>10150</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>10160</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>9850</v>
       </c>
       <c r="M23" s="3">
@@ -3382,7 +3893,7 @@
       </c>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E24" s="12"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -3395,13 +3906,13 @@
       <c r="I24" s="2">
         <v>85568</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>85845</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>86051</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>88148</v>
       </c>
       <c r="M24" s="3">
@@ -3422,7 +3933,7 @@
       </c>
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -3435,13 +3946,13 @@
       <c r="I25" s="2">
         <v>961</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>960.7</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>960.5</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>960.5</v>
       </c>
       <c r="M25" s="3">
@@ -3462,7 +3973,7 @@
       </c>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -3475,13 +3986,13 @@
       <c r="I26" s="2">
         <v>89.04</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>89.36</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>89.59</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>91.77</v>
       </c>
       <c r="M26" s="3">
@@ -3502,7 +4013,7 @@
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
@@ -3515,25 +4026,25 @@
       <c r="I27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q27" t="e">
@@ -3542,7 +4053,7 @@
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
@@ -3555,25 +4066,25 @@
       <c r="I28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q28" t="e">
@@ -3582,224 +4093,189 @@
       </c>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E29" s="12">
-        <v>4000</v>
+      <c r="E29" s="16">
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>37540</v>
+        <v>19530</v>
       </c>
       <c r="H29" s="1">
-        <v>35990</v>
+        <v>19150</v>
       </c>
       <c r="I29" s="1">
-        <v>36260</v>
+        <v>19210</v>
       </c>
       <c r="J29" s="1">
-        <v>36210</v>
+        <v>19320</v>
       </c>
       <c r="K29" s="1">
-        <v>36350</v>
-      </c>
-      <c r="L29" s="8">
-        <v>37840</v>
-      </c>
-      <c r="M29" s="3">
-        <v>37640</v>
-      </c>
-      <c r="N29" s="3">
-        <v>37520</v>
-      </c>
-      <c r="O29" s="3">
-        <v>37740</v>
-      </c>
-      <c r="P29" s="3">
-        <v>37480</v>
-      </c>
+        <v>19040</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>37057</v>
+        <v>19250</v>
       </c>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="Q30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>47450</v>
+        <v>26130</v>
       </c>
       <c r="H31" s="1">
-        <v>41700</v>
+        <v>23210</v>
       </c>
       <c r="I31" s="1">
-        <v>41850</v>
+        <v>22550</v>
       </c>
       <c r="J31" s="1">
-        <v>41460</v>
+        <v>22680</v>
       </c>
       <c r="K31" s="1">
-        <v>42180</v>
-      </c>
-      <c r="L31" s="7">
-        <v>47150</v>
-      </c>
-      <c r="M31" s="7">
-        <v>44980</v>
-      </c>
-      <c r="N31" s="7">
-        <v>45930</v>
-      </c>
-      <c r="O31" s="7">
-        <v>45640</v>
-      </c>
-      <c r="P31" s="7">
-        <v>44930</v>
-      </c>
+        <v>22280</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>44327</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>42410</v>
+        <v>22300</v>
       </c>
       <c r="H32" s="1">
-        <v>40610</v>
+        <v>21950</v>
       </c>
       <c r="I32" s="1">
-        <v>40970</v>
+        <v>21980</v>
       </c>
       <c r="J32" s="1">
-        <v>40940</v>
+        <v>22090</v>
       </c>
       <c r="K32" s="1">
-        <v>41090</v>
-      </c>
-      <c r="L32" s="7">
-        <v>42740</v>
-      </c>
-      <c r="M32" s="7">
-        <v>42550</v>
-      </c>
-      <c r="N32" s="7">
-        <v>42310</v>
-      </c>
-      <c r="O32" s="7">
-        <v>42690</v>
-      </c>
-      <c r="P32" s="7">
-        <v>42310</v>
-      </c>
+        <v>21720</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="Q32">
         <f t="shared" si="0"/>
-        <v>41862</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>42650</v>
+        <v>22840</v>
       </c>
       <c r="H33" s="1">
-        <v>40670</v>
+        <v>22000</v>
       </c>
       <c r="I33" s="1">
-        <v>41010</v>
+        <v>22010</v>
       </c>
       <c r="J33" s="1">
-        <v>41020</v>
+        <v>22140</v>
       </c>
       <c r="K33" s="1">
-        <v>41220</v>
-      </c>
-      <c r="L33" s="8">
-        <v>42840</v>
-      </c>
-      <c r="M33" s="3">
-        <v>42850</v>
-      </c>
-      <c r="N33" s="3">
-        <v>42360</v>
-      </c>
-      <c r="O33" s="3">
-        <v>42740</v>
-      </c>
-      <c r="P33" s="3">
-        <v>42790</v>
-      </c>
+        <v>21750</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>42015</v>
+        <v>22148</v>
       </c>
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>88188</v>
+        <v>82462</v>
       </c>
       <c r="H34" s="1">
-        <v>91934</v>
+        <v>83962</v>
       </c>
       <c r="I34" s="1">
-        <v>91275</v>
+        <v>83731</v>
       </c>
       <c r="J34" s="1">
-        <v>91388</v>
+        <v>83305</v>
       </c>
       <c r="K34" s="1">
-        <v>91051</v>
-      </c>
-      <c r="L34" s="8">
-        <v>87569</v>
-      </c>
-      <c r="M34" s="3">
-        <v>87941</v>
-      </c>
-      <c r="N34" s="3">
-        <v>88244</v>
-      </c>
-      <c r="O34" s="3">
-        <v>87767</v>
-      </c>
-      <c r="P34" s="3">
-        <v>88353</v>
-      </c>
+        <v>84444</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>89371</v>
+        <v>83580.800000000003</v>
       </c>
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
@@ -3807,170 +4283,506 @@
         <v>960.9</v>
       </c>
       <c r="H35" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I35" s="1">
+        <v>961</v>
+      </c>
+      <c r="J35" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="K35" s="1">
         <v>960.6</v>
       </c>
-      <c r="I35" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="J35" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="K35" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="L35" s="8">
-        <v>960.6</v>
-      </c>
-      <c r="M35" s="3">
-        <v>960.6</v>
-      </c>
-      <c r="N35" s="3">
-        <v>961</v>
-      </c>
-      <c r="O35" s="3">
-        <v>961</v>
-      </c>
-      <c r="P35" s="3">
-        <v>961</v>
-      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35">
         <f t="shared" si="0"/>
-        <v>960.81000000000017</v>
+        <v>960.78000000000009</v>
       </c>
     </row>
     <row r="36" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>91.77</v>
+        <v>85.82</v>
       </c>
       <c r="H36" s="1">
-        <v>95.7</v>
+        <v>87.38</v>
       </c>
       <c r="I36" s="1">
-        <v>95</v>
+        <v>87.13</v>
       </c>
       <c r="J36" s="1">
-        <v>95.12</v>
+        <v>86.73</v>
       </c>
       <c r="K36" s="1">
-        <v>94.77</v>
-      </c>
-      <c r="L36" s="8">
-        <v>91.16</v>
-      </c>
-      <c r="M36" s="3">
-        <v>91.55</v>
-      </c>
-      <c r="N36" s="3">
-        <v>91.83</v>
-      </c>
-      <c r="O36" s="3">
-        <v>91.33</v>
-      </c>
-      <c r="P36" s="3">
-        <v>91.94</v>
-      </c>
+        <v>87.9</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36">
         <f t="shared" si="0"/>
-        <v>93.01700000000001</v>
+        <v>86.992000000000004</v>
       </c>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E37" s="12"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
       <c r="Q37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E38" s="12"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="L38" s="7"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>37540</v>
+      </c>
+      <c r="H39" s="2">
+        <v>35990</v>
+      </c>
+      <c r="I39" s="2">
+        <v>36260</v>
+      </c>
+      <c r="J39" s="2">
+        <v>36210</v>
+      </c>
+      <c r="K39" s="2">
+        <v>36350</v>
+      </c>
+      <c r="L39" s="14">
+        <v>37840</v>
+      </c>
+      <c r="M39" s="15">
+        <v>37640</v>
+      </c>
+      <c r="N39" s="15">
+        <v>37520</v>
+      </c>
+      <c r="O39" s="15">
+        <v>37740</v>
+      </c>
+      <c r="P39" s="15">
+        <v>37480</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q48" si="1">AVERAGE(G39:P39)</f>
+        <v>37057</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="16"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="16"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>47450</v>
+      </c>
+      <c r="H41" s="2">
+        <v>41700</v>
+      </c>
+      <c r="I41" s="2">
+        <v>41850</v>
+      </c>
+      <c r="J41" s="2">
+        <v>41460</v>
+      </c>
+      <c r="K41" s="2">
+        <v>42180</v>
+      </c>
+      <c r="L41" s="8">
+        <v>47150</v>
+      </c>
+      <c r="M41" s="8">
+        <v>44980</v>
+      </c>
+      <c r="N41" s="8">
+        <v>45930</v>
+      </c>
+      <c r="O41" s="8">
+        <v>45640</v>
+      </c>
+      <c r="P41" s="8">
+        <v>44930</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="16"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>42410</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40610</v>
+      </c>
+      <c r="I42" s="2">
+        <v>40970</v>
+      </c>
+      <c r="J42" s="2">
+        <v>40940</v>
+      </c>
+      <c r="K42" s="2">
+        <v>41090</v>
+      </c>
+      <c r="L42" s="8">
+        <v>42740</v>
+      </c>
+      <c r="M42" s="8">
+        <v>42550</v>
+      </c>
+      <c r="N42" s="8">
+        <v>42310</v>
+      </c>
+      <c r="O42" s="8">
+        <v>42690</v>
+      </c>
+      <c r="P42" s="8">
+        <v>42310</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>41862</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="16"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>42650</v>
+      </c>
+      <c r="H43" s="2">
+        <v>40670</v>
+      </c>
+      <c r="I43" s="2">
+        <v>41010</v>
+      </c>
+      <c r="J43" s="2">
+        <v>41020</v>
+      </c>
+      <c r="K43" s="2">
+        <v>41220</v>
+      </c>
+      <c r="L43" s="14">
+        <v>42840</v>
+      </c>
+      <c r="M43" s="15">
+        <v>42850</v>
+      </c>
+      <c r="N43" s="15">
+        <v>42360</v>
+      </c>
+      <c r="O43" s="15">
+        <v>42740</v>
+      </c>
+      <c r="P43" s="15">
+        <v>42790</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>42015</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="16"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>88188</v>
+      </c>
+      <c r="H44" s="2">
+        <v>91934</v>
+      </c>
+      <c r="I44" s="2">
+        <v>91275</v>
+      </c>
+      <c r="J44" s="2">
+        <v>91388</v>
+      </c>
+      <c r="K44" s="2">
+        <v>91051</v>
+      </c>
+      <c r="L44" s="14">
+        <v>87569</v>
+      </c>
+      <c r="M44" s="15">
+        <v>87941</v>
+      </c>
+      <c r="N44" s="15">
+        <v>88244</v>
+      </c>
+      <c r="O44" s="15">
+        <v>87767</v>
+      </c>
+      <c r="P44" s="15">
+        <v>88353</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>89371</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="16"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="K45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="L45" s="14">
+        <v>960.6</v>
+      </c>
+      <c r="M45" s="15">
+        <v>960.6</v>
+      </c>
+      <c r="N45" s="15">
+        <v>961</v>
+      </c>
+      <c r="O45" s="15">
+        <v>961</v>
+      </c>
+      <c r="P45" s="15">
+        <v>961</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>960.81000000000017</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>91.77</v>
+      </c>
+      <c r="H46" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="I46" s="2">
+        <v>95</v>
+      </c>
+      <c r="J46" s="2">
+        <v>95.12</v>
+      </c>
+      <c r="K46" s="2">
+        <v>94.77</v>
+      </c>
+      <c r="L46" s="14">
+        <v>91.16</v>
+      </c>
+      <c r="M46" s="15">
+        <v>91.55</v>
+      </c>
+      <c r="N46" s="15">
+        <v>91.83</v>
+      </c>
+      <c r="O46" s="15">
+        <v>91.33</v>
+      </c>
+      <c r="P46" s="15">
+        <v>91.94</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>93.01700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E47" s="16"/>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="16"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q38" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q48" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
